--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1781.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1781.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8662379700580625</v>
+        <v>0.7262902855873108</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.384388208389282</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.390127182006836</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.824201464653015</v>
       </c>
       <c r="E1">
-        <v>1.134418799103592</v>
+        <v>1.045427560806274</v>
       </c>
     </row>
   </sheetData>
